--- a/libs/data/schedule.xlsx
+++ b/libs/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuarosenberg/s21-intro-to-data-sci-methods-in-ed/libs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3F9208-D0CE-FB42-88F1-E6A98C9C633F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF276568-6DDB-F244-A105-6339DDA5004C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{3759121A-71D8-DD43-A2AE-D807B9ADF3B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{3759121A-71D8-DD43-A2AE-D807B9ADF3B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>HW1</t>
-  </si>
-  <si>
-    <t>and/or personal learning or development plan </t>
   </si>
   <si>
     <t>Week 2   - Jan 28</t>
@@ -571,14 +568,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,7 +606,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3"/>
@@ -617,193 +615,192 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
